--- a/data/trans_orig/P6705-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>67751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53282</v>
+        <v>52950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83148</v>
+        <v>82173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.253862343445069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1996471637200428</v>
+        <v>0.1984011693299965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3115543888151179</v>
+        <v>0.3079014205195533</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -764,19 +764,19 @@
         <v>34322</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24004</v>
+        <v>24555</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45829</v>
+        <v>46407</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2141404945888039</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1497649197045998</v>
+        <v>0.1532044205461531</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2859350103601397</v>
+        <v>0.2895417879574054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>96</v>
@@ -785,19 +785,19 @@
         <v>102073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84125</v>
+        <v>84928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122108</v>
+        <v>121073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2389579072095274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1969416899492063</v>
+        <v>0.1988204031019327</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2858616543309092</v>
+        <v>0.283437116788366</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>47021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35357</v>
+        <v>35504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60860</v>
+        <v>59633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1761877684544093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1324815793032396</v>
+        <v>0.1330322261222479</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2280409528963461</v>
+        <v>0.2234437037337728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -835,19 +835,19 @@
         <v>37727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28126</v>
+        <v>27589</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50057</v>
+        <v>49247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2353836595016097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1754802526217325</v>
+        <v>0.1721283469081387</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.312311173733143</v>
+        <v>0.3072554105294442</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -856,19 +856,19 @@
         <v>84748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>69282</v>
+        <v>69614</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102209</v>
+        <v>103175</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1983992568146725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1621934480758558</v>
+        <v>0.1629708185367372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2392752257763067</v>
+        <v>0.2415366829210227</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>72120</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56332</v>
+        <v>59327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86803</v>
+        <v>89122</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.270232526635209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2110755990609236</v>
+        <v>0.2222993755685335</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3252482961969209</v>
+        <v>0.3339374526766117</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -906,19 +906,19 @@
         <v>38651</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28273</v>
+        <v>28308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50788</v>
+        <v>50026</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2411513050100622</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1763982772861402</v>
+        <v>0.1766180336985323</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3168715231734608</v>
+        <v>0.3121174548906587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>105</v>
@@ -927,19 +927,19 @@
         <v>110771</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>93697</v>
+        <v>92795</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130158</v>
+        <v>130337</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2593206676496903</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.219348300610741</v>
+        <v>0.2172371691551638</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3047065917575976</v>
+        <v>0.3051254052123665</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>50772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38401</v>
+        <v>38951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65398</v>
+        <v>65842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1902409369376989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1438878636511118</v>
+        <v>0.1459502308223913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2450439867313391</v>
+        <v>0.2467078955340931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -977,19 +977,19 @@
         <v>28161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19305</v>
+        <v>18810</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41478</v>
+        <v>39624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1756985650011523</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1204488694964508</v>
+        <v>0.1173583808735065</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2587879847671627</v>
+        <v>0.2472194817687976</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -998,19 +998,19 @@
         <v>78932</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62668</v>
+        <v>62620</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95906</v>
+        <v>95365</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1847843466358202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1467078141599921</v>
+        <v>0.1465962003094641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2245199378984256</v>
+        <v>0.2232529959245088</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>29217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20754</v>
+        <v>20018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41185</v>
+        <v>41604</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1094764245276138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07776402028434089</v>
+        <v>0.0750065722065856</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1543194609107818</v>
+        <v>0.1558884248944906</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1048,19 +1048,19 @@
         <v>21417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13969</v>
+        <v>14014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31350</v>
+        <v>31982</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1336259758983719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08715434380088817</v>
+        <v>0.08743621597684614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1955935412882878</v>
+        <v>0.1995383764733219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1069,19 +1069,19 @@
         <v>50634</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38546</v>
+        <v>38607</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65198</v>
+        <v>64604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1185378216902897</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09023792116333032</v>
+        <v>0.09037991016124142</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1526324280018786</v>
+        <v>0.1512416974660025</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>80225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64770</v>
+        <v>64973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98398</v>
+        <v>98222</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1967281557056183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1588284090487019</v>
+        <v>0.1593280914060242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2412925076851371</v>
+        <v>0.2408603430552198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1194,19 +1194,19 @@
         <v>64806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50262</v>
+        <v>49976</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79237</v>
+        <v>80104</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2386418818419178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.185086828422214</v>
+        <v>0.18403352262043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2917834624252024</v>
+        <v>0.2949755733232694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -1215,19 +1215,19 @@
         <v>145031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124398</v>
+        <v>124160</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166779</v>
+        <v>168717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2134823971822461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1831115022393234</v>
+        <v>0.1827606190632279</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2454950254467727</v>
+        <v>0.2483478917414703</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>57427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43786</v>
+        <v>44407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71440</v>
+        <v>71661</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1408232766221946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1073715499055849</v>
+        <v>0.1088945463302738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1751847726887994</v>
+        <v>0.1757283354912319</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -1265,19 +1265,19 @@
         <v>46088</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33653</v>
+        <v>34545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60209</v>
+        <v>59672</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1697139370987881</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1239243493279814</v>
+        <v>0.1272105188514947</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2217156643054257</v>
+        <v>0.2197388903282114</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>97</v>
@@ -1286,19 +1286,19 @@
         <v>103515</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82588</v>
+        <v>84958</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123390</v>
+        <v>124258</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1523717870187662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.121568250253657</v>
+        <v>0.1250563100688317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1816271863771378</v>
+        <v>0.1829059858192878</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>110805</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93552</v>
+        <v>92572</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>131002</v>
+        <v>129597</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2717157298388227</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2294098126503084</v>
+        <v>0.2270049592756628</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3212434870057594</v>
+        <v>0.3177975945808221</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -1336,19 +1336,19 @@
         <v>71961</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57351</v>
+        <v>57614</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>87309</v>
+        <v>87053</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2649927134648734</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2111919083780173</v>
+        <v>0.212159970216016</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3215091561133029</v>
+        <v>0.32056724938605</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>165</v>
@@ -1357,19 +1357,19 @@
         <v>182766</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156519</v>
+        <v>158794</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>207970</v>
+        <v>206909</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2690283276399779</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2303928127183717</v>
+        <v>0.2337416331401471</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3061270235624983</v>
+        <v>0.3045661517922906</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>87232</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69876</v>
+        <v>69719</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106728</v>
+        <v>107229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.21391067066461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1713496714067052</v>
+        <v>0.1709645870447515</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2617198667335527</v>
+        <v>0.2629473608388612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1407,19 +1407,19 @@
         <v>41100</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29881</v>
+        <v>29638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56045</v>
+        <v>55256</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1513468617084499</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.110032950931444</v>
+        <v>0.1091391268825276</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2063810315994453</v>
+        <v>0.203477357554076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -1428,19 +1428,19 @@
         <v>128332</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106626</v>
+        <v>106338</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149675</v>
+        <v>149672</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1889019382140415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1569508839166964</v>
+        <v>0.1565274588894668</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2203192457790261</v>
+        <v>0.2203135548198138</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>72107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56921</v>
+        <v>56627</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88228</v>
+        <v>88441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1768221671687544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1395818527001836</v>
+        <v>0.1388610098806036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2163524071080608</v>
+        <v>0.216874397811162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -1478,19 +1478,19 @@
         <v>47606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35508</v>
+        <v>35530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61650</v>
+        <v>61528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1753046058859709</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1307542705381136</v>
+        <v>0.1308378830610712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2270200458113732</v>
+        <v>0.2265734575306589</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -1499,19 +1499,19 @@
         <v>119713</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>100963</v>
+        <v>101602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140486</v>
+        <v>140725</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1762155499449682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1486158858052669</v>
+        <v>0.1495567326483466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2067928491448822</v>
+        <v>0.2071444505727879</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>54326</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41927</v>
+        <v>40425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70232</v>
+        <v>69246</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1700197156691902</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1312176222828035</v>
+        <v>0.1265163421426393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2198012607629672</v>
+        <v>0.2167150421141304</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1624,19 +1624,19 @@
         <v>42497</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31049</v>
+        <v>29422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56799</v>
+        <v>54646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1982683527435885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1448555609239317</v>
+        <v>0.1372659544545251</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2649920185010257</v>
+        <v>0.2549469408549953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1645,19 +1645,19 @@
         <v>96823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79335</v>
+        <v>80718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117547</v>
+        <v>118444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1813612327096147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1486046041477479</v>
+        <v>0.1511954775550435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2201801474676996</v>
+        <v>0.2218611755918093</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>44679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32421</v>
+        <v>32317</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60136</v>
+        <v>58643</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1398305932964717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1014654420022477</v>
+        <v>0.1011407270557533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.188204840001874</v>
+        <v>0.1835313802524896</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1695,19 +1695,19 @@
         <v>27515</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18368</v>
+        <v>18338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38670</v>
+        <v>40152</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1283700170018923</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08569351644377791</v>
+        <v>0.08555414864577572</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1804110811359669</v>
+        <v>0.187324722339104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>65</v>
@@ -1716,19 +1716,19 @@
         <v>72194</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55474</v>
+        <v>56806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89818</v>
+        <v>89804</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1352292979845694</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1039102265935463</v>
+        <v>0.1064051987367709</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1682403484700554</v>
+        <v>0.1682152097448491</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>85371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>69954</v>
+        <v>68826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>102909</v>
+        <v>104122</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2671810380112906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2189310707413073</v>
+        <v>0.2154017748661286</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3220682772951999</v>
+        <v>0.325864493104508</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -1766,19 +1766,19 @@
         <v>52346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39849</v>
+        <v>40319</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65985</v>
+        <v>67681</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2442191346226594</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1859133272134926</v>
+        <v>0.1881050826812677</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3078475240941098</v>
+        <v>0.3157598536453322</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -1787,19 +1787,19 @@
         <v>137717</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>117875</v>
+        <v>117450</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>159545</v>
+        <v>159142</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.257962086389771</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2207945302595077</v>
+        <v>0.2199992454781773</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2988487204115302</v>
+        <v>0.2980942970498905</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>58821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45974</v>
+        <v>45094</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75510</v>
+        <v>74845</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1840874804976487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1438834278607392</v>
+        <v>0.1411267455264013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2363187102722314</v>
+        <v>0.2342386344448139</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1837,19 +1837,19 @@
         <v>39292</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28090</v>
+        <v>27951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52743</v>
+        <v>53744</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1833150624404586</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1310516833722257</v>
+        <v>0.1304016236248317</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2460709724706631</v>
+        <v>0.250740519735042</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -1858,19 +1858,19 @@
         <v>98112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79914</v>
+        <v>80104</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>117925</v>
+        <v>119087</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1837773631445573</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1496888101152678</v>
+        <v>0.1500460196664428</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2208890222345534</v>
+        <v>0.2230651820920477</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>76329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61430</v>
+        <v>61519</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92982</v>
+        <v>96042</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2388811725253988</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.192253667856944</v>
+        <v>0.1925318687500353</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2910009949853504</v>
+        <v>0.3005776810946545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -1908,19 +1908,19 @@
         <v>52691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40801</v>
+        <v>40073</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66609</v>
+        <v>66490</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2458274331914012</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1903529643418606</v>
+        <v>0.1869598882845211</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3107606235471311</v>
+        <v>0.3102032690698276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>116</v>
@@ -1929,19 +1929,19 @@
         <v>129019</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107445</v>
+        <v>108816</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151525</v>
+        <v>150447</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2416700197714876</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2012587748756676</v>
+        <v>0.2038272125589248</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2838260029451523</v>
+        <v>0.2818063703293376</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>74193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58845</v>
+        <v>59791</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93334</v>
+        <v>90896</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1784525878982836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1415374872678832</v>
+        <v>0.1438109016559453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2244910565293865</v>
+        <v>0.2186271021804237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2054,19 +2054,19 @@
         <v>66439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52603</v>
+        <v>52877</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84000</v>
+        <v>81431</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2231909162263933</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1767118601731656</v>
+        <v>0.1776322046188901</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2821824543632702</v>
+        <v>0.273554387640752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>134</v>
@@ -2075,19 +2075,19 @@
         <v>140632</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121157</v>
+        <v>119653</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163347</v>
+        <v>164332</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1971194705443703</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1698210915072419</v>
+        <v>0.1677133944602396</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2289575789013679</v>
+        <v>0.2303386229139026</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>66457</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52356</v>
+        <v>51971</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>83244</v>
+        <v>82312</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1598461279648217</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1259297085236498</v>
+        <v>0.1250037700077177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2002213933402817</v>
+        <v>0.1979790805985821</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -2125,19 +2125,19 @@
         <v>42888</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31616</v>
+        <v>31448</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>57038</v>
+        <v>54988</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1440760611431025</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1062073338742824</v>
+        <v>0.1056441788358581</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1916098102017677</v>
+        <v>0.184724077990109</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>107</v>
@@ -2146,19 +2146,19 @@
         <v>109346</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>90013</v>
+        <v>90195</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>128357</v>
+        <v>130891</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1532661327418662</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.126167848263597</v>
+        <v>0.1264225531678989</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1799139690364701</v>
+        <v>0.1834657383655347</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>140636</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122231</v>
+        <v>121432</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>159822</v>
+        <v>160239</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3382643839091908</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2939951354165395</v>
+        <v>0.2920726907871204</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3844112578481303</v>
+        <v>0.3854142959587828</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -2196,19 +2196,19 @@
         <v>78741</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>63430</v>
+        <v>63392</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95413</v>
+        <v>95215</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2645178638844654</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2130821084917573</v>
+        <v>0.2129541389891659</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3205218946677051</v>
+        <v>0.3198583092583249</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>210</v>
@@ -2217,19 +2217,19 @@
         <v>219378</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>194023</v>
+        <v>194705</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>244741</v>
+        <v>246722</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3074939531330842</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2719554812582189</v>
+        <v>0.2729119688901271</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3430443639054375</v>
+        <v>0.3458223391591931</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>79944</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63710</v>
+        <v>66367</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96331</v>
+        <v>98910</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1922844281805553</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1532367997861933</v>
+        <v>0.1596290545384146</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.231700232161345</v>
+        <v>0.2379024998273603</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -2267,19 +2267,19 @@
         <v>61189</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48076</v>
+        <v>48265</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77283</v>
+        <v>75995</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2055541776638229</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1615025979834866</v>
+        <v>0.1621380240251915</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2596180937285087</v>
+        <v>0.2552931488470324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>135</v>
@@ -2288,19 +2288,19 @@
         <v>141133</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119823</v>
+        <v>120541</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162346</v>
+        <v>162920</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1978211763247967</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1679511031828633</v>
+        <v>0.1689580802764147</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2275548786188117</v>
+        <v>0.2283587743264621</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>54528</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40632</v>
+        <v>41661</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68735</v>
+        <v>70590</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1311524720471485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09772878722276961</v>
+        <v>0.1002052384049239</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1653230528927279</v>
+        <v>0.16978665946185</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -2338,19 +2338,19 @@
         <v>48421</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36872</v>
+        <v>36540</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63058</v>
+        <v>64737</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1626609810822159</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.123864307042366</v>
+        <v>0.1227508584494398</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2118321338192901</v>
+        <v>0.217473393249211</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>99</v>
@@ -2359,19 +2359,19 @@
         <v>102948</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>85090</v>
+        <v>86423</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>123100</v>
+        <v>123045</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1442992672558826</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1192681805067659</v>
+        <v>0.1211354719396116</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1725448372246054</v>
+        <v>0.1724680165707378</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>276495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>244606</v>
+        <v>245949</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>308871</v>
+        <v>305941</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1961010208820606</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1734843918783042</v>
+        <v>0.1744368165508461</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.219063972770912</v>
+        <v>0.2169855510764916</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>190</v>
@@ -2484,19 +2484,19 @@
         <v>208064</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>182461</v>
+        <v>184101</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>236863</v>
+        <v>238121</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2204398076543127</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1933134663888933</v>
+        <v>0.1950518480030874</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2509516952175451</v>
+        <v>0.2522841503532542</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>449</v>
@@ -2505,19 +2505,19 @@
         <v>484559</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>443954</v>
+        <v>447365</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>529947</v>
+        <v>525799</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2058606434059961</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1886099857857669</v>
+        <v>0.1900589975682599</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2251434956705248</v>
+        <v>0.2233812442609081</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>215585</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>188928</v>
+        <v>186583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>246001</v>
+        <v>245443</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1529015018498053</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1339951427391859</v>
+        <v>0.1323321361888522</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1744738436266584</v>
+        <v>0.1740777497969824</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>146</v>
@@ -2555,19 +2555,19 @@
         <v>154218</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129353</v>
+        <v>131381</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>177505</v>
+        <v>177962</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.163390845408196</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1370465076977694</v>
+        <v>0.139195724455018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1880630535865901</v>
+        <v>0.18854746599566</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>353</v>
@@ -2576,19 +2576,19 @@
         <v>369803</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>333681</v>
+        <v>333523</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>407462</v>
+        <v>408252</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1571076290742929</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1417612692445028</v>
+        <v>0.1416942771213269</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1731065174269587</v>
+        <v>0.1734423663739009</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>408932</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>373390</v>
+        <v>374674</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>450019</v>
+        <v>447857</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2900307023689535</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2648232866992892</v>
+        <v>0.2657339201280804</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3191716454566498</v>
+        <v>0.3176382184433587</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>224</v>
@@ -2626,19 +2626,19 @@
         <v>241700</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>213387</v>
+        <v>213859</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>268880</v>
+        <v>270484</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2560769113828713</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2260789014358154</v>
+        <v>0.2265795885306295</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2848728373364358</v>
+        <v>0.2865725214359091</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>606</v>
@@ -2647,19 +2647,19 @@
         <v>650632</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>598873</v>
+        <v>605485</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>691688</v>
+        <v>696998</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.276415554400339</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2544261837603954</v>
+        <v>0.2572350152672445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2938574438405032</v>
+        <v>0.2961136842509737</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>276768</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>245109</v>
+        <v>246936</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>311032</v>
+        <v>315077</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1962949002491045</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1738409405232672</v>
+        <v>0.1751371893146262</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2205963672221125</v>
+        <v>0.2234652089398518</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>154</v>
@@ -2697,19 +2697,19 @@
         <v>169742</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>145844</v>
+        <v>145331</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>199235</v>
+        <v>196995</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1798379055202459</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.154518661874893</v>
+        <v>0.1539748867195928</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2110859198669851</v>
+        <v>0.2087125695598117</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>410</v>
@@ -2718,19 +2718,19 @@
         <v>446510</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>409081</v>
+        <v>406878</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>492724</v>
+        <v>486054</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1896958015374477</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1737947147253486</v>
+        <v>0.1728584401366932</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2093293556938581</v>
+        <v>0.2064960291773962</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>232181</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>205078</v>
+        <v>204046</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>262645</v>
+        <v>262018</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1646718746500763</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1454498239288922</v>
+        <v>0.1447172968201867</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1862784917986161</v>
+        <v>0.1858337396429844</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>157</v>
@@ -2768,19 +2768,19 @@
         <v>170135</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>148173</v>
+        <v>147915</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>195796</v>
+        <v>195775</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1802545300343741</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1569861365378047</v>
+        <v>0.1567126381135409</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2074419111539395</v>
+        <v>0.207419589960396</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>376</v>
@@ -2789,19 +2789,19 @@
         <v>402316</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>367083</v>
+        <v>366015</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>439441</v>
+        <v>441290</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1709203715819242</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1559520374261303</v>
+        <v>0.1554984130301772</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1866926751750022</v>
+        <v>0.1874783266031372</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>54678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41888</v>
+        <v>43147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67730</v>
+        <v>69365</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2265775788401692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1735775887321445</v>
+        <v>0.1787939017617111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2806625410329015</v>
+        <v>0.287438498827225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -3154,19 +3154,19 @@
         <v>36971</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28182</v>
+        <v>27158</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48075</v>
+        <v>47672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2251154591249557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1715990486221135</v>
+        <v>0.1653654282380909</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2927246805407847</v>
+        <v>0.2902719396761604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -3175,19 +3175,19 @@
         <v>91649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76729</v>
+        <v>76023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109777</v>
+        <v>112345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.225985480357589</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1891962378115361</v>
+        <v>0.1874544540636927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2706839127621051</v>
+        <v>0.2770173604710903</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>46764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33353</v>
+        <v>35795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58781</v>
+        <v>59854</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.193782742505133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1382085438464733</v>
+        <v>0.1483289630524187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.243580532073384</v>
+        <v>0.2480244849437393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3225,19 +3225,19 @@
         <v>32798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23581</v>
+        <v>24001</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43257</v>
+        <v>42232</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1997033238301554</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1435842646053803</v>
+        <v>0.1461386090420473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2633879375858876</v>
+        <v>0.2571483807551144</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -3246,19 +3246,19 @@
         <v>79562</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64169</v>
+        <v>65083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>95743</v>
+        <v>97526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1961803349745203</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1582257439492466</v>
+        <v>0.1604796369009197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2360809448154981</v>
+        <v>0.2404758339756176</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>67069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54042</v>
+        <v>52077</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82029</v>
+        <v>81216</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2779227639138142</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2239437145282239</v>
+        <v>0.2157979480951188</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3399179675999147</v>
+        <v>0.336549301520761</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -3296,19 +3296,19 @@
         <v>50131</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38861</v>
+        <v>39592</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62831</v>
+        <v>61570</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3052462673267614</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2366216526978535</v>
+        <v>0.2410747616630817</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3825717626979023</v>
+        <v>0.374894923453527</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>114</v>
@@ -3317,19 +3317,19 @@
         <v>117200</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99855</v>
+        <v>99796</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>136182</v>
+        <v>137863</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2889876615013685</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2462196814190262</v>
+        <v>0.2460738271367152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3357933372722338</v>
+        <v>0.3399389758129083</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>46272</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34971</v>
+        <v>35726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59371</v>
+        <v>60639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1917448305830984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1449129089719913</v>
+        <v>0.1480426595868293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2460268480041917</v>
+        <v>0.2512784998091619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3367,19 +3367,19 @@
         <v>29348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20304</v>
+        <v>21137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39440</v>
+        <v>39764</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1786976237202864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1236290212035598</v>
+        <v>0.128701333041523</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2401473860586073</v>
+        <v>0.2421208436137419</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -3388,19 +3388,19 @@
         <v>75620</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60739</v>
+        <v>61413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91009</v>
+        <v>92412</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1864612472314758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1497689662960195</v>
+        <v>0.1514307517952416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2244068731499927</v>
+        <v>0.2278668839390741</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>26539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17291</v>
+        <v>17720</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37497</v>
+        <v>39227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1099720841577853</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07165297342081567</v>
+        <v>0.07342837663866328</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1553829347133596</v>
+        <v>0.1625500003578089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -3438,19 +3438,19 @@
         <v>14984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9242</v>
+        <v>9144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23421</v>
+        <v>24064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09123732599784097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05627678807076087</v>
+        <v>0.05567972571695807</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1426072053012736</v>
+        <v>0.1465216180827256</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -3459,19 +3459,19 @@
         <v>41523</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30202</v>
+        <v>30800</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55152</v>
+        <v>55170</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1023852759350464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07447090151972967</v>
+        <v>0.07594651931801252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1359931205934096</v>
+        <v>0.1360369047463634</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>118075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99098</v>
+        <v>100013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137613</v>
+        <v>138268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2857246125629916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2398029738858134</v>
+        <v>0.2420182455365404</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.333004441079376</v>
+        <v>0.3345905937412161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -3584,19 +3584,19 @@
         <v>67274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54377</v>
+        <v>54017</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84021</v>
+        <v>83174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.246648176276641</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1993650608369598</v>
+        <v>0.1980436409114687</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3080497697596231</v>
+        <v>0.3049434192318302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -3605,19 +3605,19 @@
         <v>185348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>162821</v>
+        <v>161988</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>213117</v>
+        <v>206825</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2701878942085482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2373501567693928</v>
+        <v>0.2361345686707287</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3106682064202506</v>
+        <v>0.3014959482017557</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>83470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69081</v>
+        <v>67677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101864</v>
+        <v>101251</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2019865546007253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1671675111655612</v>
+        <v>0.1637698637128125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2464979201308745</v>
+        <v>0.2450145481640202</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -3655,19 +3655,19 @@
         <v>59986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46468</v>
+        <v>46883</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75232</v>
+        <v>74831</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2199285228244208</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.170368989769226</v>
+        <v>0.171888618538344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2758254834429973</v>
+        <v>0.2743562229820075</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>135</v>
@@ -3676,19 +3676,19 @@
         <v>143456</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>120587</v>
+        <v>121501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>165813</v>
+        <v>167278</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2091202477802464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1757830565719474</v>
+        <v>0.1771163865377349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2417103561206347</v>
+        <v>0.2438468126068251</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>104666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87864</v>
+        <v>88459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>126441</v>
+        <v>125374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2532783353819953</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2126186974244439</v>
+        <v>0.2140581082836086</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3059691924327052</v>
+        <v>0.3033872620430165</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -3726,19 +3726,19 @@
         <v>62383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48193</v>
+        <v>47917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76997</v>
+        <v>77577</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2287182298867526</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1766918887177355</v>
+        <v>0.1756794965406028</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2822979411840731</v>
+        <v>0.2844239028280515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>153</v>
@@ -3747,19 +3747,19 @@
         <v>167049</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>146161</v>
+        <v>144295</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>190628</v>
+        <v>190665</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2435132831382652</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2130642049233491</v>
+        <v>0.2103435339334037</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2778841396858813</v>
+        <v>0.2779391504589375</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>64311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50157</v>
+        <v>48317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81664</v>
+        <v>80774</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1556250354775615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1213739502802447</v>
+        <v>0.1169201136069411</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1976151333448196</v>
+        <v>0.1954616756937772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3797,19 +3797,19 @@
         <v>40210</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29313</v>
+        <v>29532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53864</v>
+        <v>54534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1474220394431356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1074703420432637</v>
+        <v>0.108274177921606</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1974850109673071</v>
+        <v>0.1999420923828631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -3818,19 +3818,19 @@
         <v>104521</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87169</v>
+        <v>86152</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127807</v>
+        <v>125437</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.15236353951832</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1270691087110285</v>
+        <v>0.12558660027091</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1863081717817655</v>
+        <v>0.1828540767328541</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>42724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30755</v>
+        <v>31188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56394</v>
+        <v>58810</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1033854619767262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07442361020202405</v>
+        <v>0.0754719211030364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1364649993689517</v>
+        <v>0.1423128926608232</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -3868,19 +3868,19 @@
         <v>42899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31800</v>
+        <v>31405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56619</v>
+        <v>56425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.15728303156905</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.116589081922396</v>
+        <v>0.1151425078692657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.207586153461187</v>
+        <v>0.2068733190838473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>78</v>
@@ -3889,19 +3889,19 @@
         <v>85623</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69856</v>
+        <v>69891</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>106699</v>
+        <v>106240</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1248150353546202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1018310998483449</v>
+        <v>0.1018826632842492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1555379554909352</v>
+        <v>0.1548689222657423</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>73089</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58714</v>
+        <v>57714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91532</v>
+        <v>91218</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2014756390829948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1618479236167203</v>
+        <v>0.1590911615029831</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2523155115075979</v>
+        <v>0.2514498250993569</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -4014,19 +4014,19 @@
         <v>47681</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34067</v>
+        <v>35167</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60612</v>
+        <v>60530</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1769099153368645</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1263954099347268</v>
+        <v>0.1304772668162009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2248858339893628</v>
+        <v>0.224579996288951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -4035,19 +4035,19 @@
         <v>120771</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102722</v>
+        <v>102826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143274</v>
+        <v>141265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1910041549242064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1624594497425508</v>
+        <v>0.162624505689283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2265941870265487</v>
+        <v>0.2234173336314343</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>69911</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55190</v>
+        <v>56249</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>87949</v>
+        <v>87737</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1927156389453527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1521352850496143</v>
+        <v>0.1550544986298526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2424375731632225</v>
+        <v>0.2418522677436545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -4085,19 +4085,19 @@
         <v>56380</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43869</v>
+        <v>44156</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70848</v>
+        <v>71979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2091852618777824</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1627658602837873</v>
+        <v>0.1638307232686182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2628628441005099</v>
+        <v>0.267060804068923</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -4106,19 +4106,19 @@
         <v>126292</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106643</v>
+        <v>106458</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148256</v>
+        <v>148235</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1997360466247855</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1686610012688448</v>
+        <v>0.168367421424097</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2344724511516195</v>
+        <v>0.2344401578000535</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>127137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108455</v>
+        <v>110042</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>148872</v>
+        <v>146192</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.350462614510609</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2989627795156355</v>
+        <v>0.3033391108310008</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4103758140886978</v>
+        <v>0.4029868937919215</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>89</v>
@@ -4156,19 +4156,19 @@
         <v>91819</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>75778</v>
+        <v>77432</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>108328</v>
+        <v>108489</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.340670825726205</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2811565827061483</v>
+        <v>0.2872922142770435</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4019231840544422</v>
+        <v>0.4025189200932486</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>202</v>
@@ -4177,19 +4177,19 @@
         <v>218956</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>194108</v>
+        <v>195181</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>246622</v>
+        <v>242059</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3462887272601574</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3069901630254336</v>
+        <v>0.3086873560893911</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3900437744024775</v>
+        <v>0.3828269489982027</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>62811</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50132</v>
+        <v>48247</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78669</v>
+        <v>77911</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1731415337760797</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1381931096459337</v>
+        <v>0.1329956236970091</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2168577334338599</v>
+        <v>0.214766100337033</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -4227,19 +4227,19 @@
         <v>43867</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33673</v>
+        <v>33201</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57850</v>
+        <v>58178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1627585451279208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1249369170555154</v>
+        <v>0.1231831048395731</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2146365215794812</v>
+        <v>0.215855707138781</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -4248,19 +4248,19 @@
         <v>106678</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88329</v>
+        <v>88797</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127032</v>
+        <v>125667</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1687156392950672</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1396959111569353</v>
+        <v>0.1404362200353722</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.200906007131236</v>
+        <v>0.1987471418410791</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>29821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19551</v>
+        <v>20633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42522</v>
+        <v>43199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08220457368496381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05389323938321697</v>
+        <v>0.05687640716686283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1172148915001367</v>
+        <v>0.1190809157346249</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4298,19 +4298,19 @@
         <v>29776</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20626</v>
+        <v>20860</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41159</v>
+        <v>41735</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1104754519312273</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07652791320651212</v>
+        <v>0.0773957366510019</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1527086109700667</v>
+        <v>0.1548476533110681</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -4319,19 +4319,19 @@
         <v>59597</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45386</v>
+        <v>44341</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75845</v>
+        <v>75376</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09425543189578357</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07177912995078792</v>
+        <v>0.07012727593851591</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1199527740448968</v>
+        <v>0.1192107750192182</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>111347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94334</v>
+        <v>96067</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131040</v>
+        <v>130975</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2790644721131781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2364264447544367</v>
+        <v>0.2407687180612428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3284198789672571</v>
+        <v>0.3282580703290569</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -4444,19 +4444,19 @@
         <v>77949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63197</v>
+        <v>63713</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94329</v>
+        <v>94828</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2394946513104961</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1941684886739034</v>
+        <v>0.1957529909341302</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2898199872842926</v>
+        <v>0.2913549846534171</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>184</v>
@@ -4465,19 +4465,19 @@
         <v>189296</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166526</v>
+        <v>167074</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>213406</v>
+        <v>215477</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2612875193761374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2298580230975415</v>
+        <v>0.23061430041218</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2945665049570197</v>
+        <v>0.2974255322289612</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>71366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57616</v>
+        <v>56710</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>87621</v>
+        <v>88184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1788625524259552</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1444014671202673</v>
+        <v>0.1421300629925902</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2196021743878236</v>
+        <v>0.2210119017385571</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -4515,19 +4515,19 @@
         <v>55933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>43437</v>
+        <v>42799</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>71087</v>
+        <v>69875</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1718523873899495</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1334580554979287</v>
+        <v>0.131498115779148</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2184110268713981</v>
+        <v>0.2146857936224101</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>121</v>
@@ -4536,19 +4536,19 @@
         <v>127300</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>108144</v>
+        <v>106182</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>147217</v>
+        <v>149838</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1757131984487069</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1492717038022812</v>
+        <v>0.14656382032778</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2032056287009477</v>
+        <v>0.206823114472366</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>105786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>90397</v>
+        <v>89327</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>125817</v>
+        <v>124649</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2651276566641282</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2265584381671946</v>
+        <v>0.2238776265742316</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3153288069265949</v>
+        <v>0.3124021523029187</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -4586,19 +4586,19 @@
         <v>78915</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65499</v>
+        <v>64076</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96027</v>
+        <v>94611</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2424607132220646</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2012406968673204</v>
+        <v>0.1968693705293043</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2950365848295357</v>
+        <v>0.2906853550130848</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>179</v>
@@ -4607,19 +4607,19 @@
         <v>184701</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>161736</v>
+        <v>161867</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>210405</v>
+        <v>208814</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2549444116028964</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2232454568953407</v>
+        <v>0.2234262090979007</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2904237137594165</v>
+        <v>0.2882284554747769</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>64556</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50249</v>
+        <v>52015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>79146</v>
+        <v>80772</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1617929234870707</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1259368199869076</v>
+        <v>0.1303623732997856</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1983601796237059</v>
+        <v>0.2024355752899136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -4657,19 +4657,19 @@
         <v>66868</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52810</v>
+        <v>52660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>81237</v>
+        <v>82677</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2054480187690024</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1622562733024001</v>
+        <v>0.1617961093716198</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2495960815181363</v>
+        <v>0.2540202936216699</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -4678,19 +4678,19 @@
         <v>131424</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111538</v>
+        <v>114471</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>151164</v>
+        <v>154223</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1814052075413192</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1539569845446642</v>
+        <v>0.1580055670459087</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2086537715403352</v>
+        <v>0.2128760589897689</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>45946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34193</v>
+        <v>34171</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>60234</v>
+        <v>62502</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1151523953096677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08569759339724754</v>
+        <v>0.08564250386107534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1509628802043785</v>
+        <v>0.1566472533073614</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>40</v>
@@ -4728,19 +4728,19 @@
         <v>45809</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32513</v>
+        <v>34369</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60027</v>
+        <v>61582</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1407442293084874</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09989451666501988</v>
+        <v>0.105597935690494</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1844299672570348</v>
+        <v>0.1892083203972352</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -4749,19 +4749,19 @@
         <v>91755</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74122</v>
+        <v>73249</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>109969</v>
+        <v>112490</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1266496630309401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1023116649449179</v>
+        <v>0.1011065798886758</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1517908030937637</v>
+        <v>0.1552710841103898</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>357189</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>322233</v>
+        <v>326669</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>390320</v>
+        <v>391788</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2521917856681907</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2275115083566052</v>
+        <v>0.2306436437846711</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2755843801384753</v>
+        <v>0.2766205311437702</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>227</v>
@@ -4874,19 +4874,19 @@
         <v>229876</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>203020</v>
+        <v>202599</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>258199</v>
+        <v>255653</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2227516307356379</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1967286263702413</v>
+        <v>0.1963201634827246</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2501974174830253</v>
+        <v>0.2477305624134203</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>564</v>
@@ -4895,19 +4895,19 @@
         <v>587064</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>547542</v>
+        <v>539193</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>630699</v>
+        <v>632414</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2397825748073449</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2236400169943355</v>
+        <v>0.2202300521115974</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2576048182955249</v>
+        <v>0.2583056584720533</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>271512</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>238461</v>
+        <v>240354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>303970</v>
+        <v>299573</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1916998417044742</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1683648667115078</v>
+        <v>0.1697013546258677</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2146167217130201</v>
+        <v>0.2115125195104467</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>203</v>
@@ -4945,19 +4945,19 @@
         <v>205098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>182169</v>
+        <v>180349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>232977</v>
+        <v>232086</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1987413809722018</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1765234960304075</v>
+        <v>0.1747597664135346</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2257571769721049</v>
+        <v>0.2248931676999178</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>454</v>
@@ -4966,19 +4966,19 @@
         <v>476609</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>438287</v>
+        <v>438596</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>516560</v>
+        <v>518658</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1946678948875618</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.179015538559769</v>
+        <v>0.1791419602347659</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.210985543106818</v>
+        <v>0.2118427046412655</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>404658</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>369607</v>
+        <v>369481</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>439581</v>
+        <v>440828</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2857074919349905</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2609599996603074</v>
+        <v>0.2608705096464542</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3103646514609947</v>
+        <v>0.3112453928019345</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>274</v>
@@ -5016,19 +5016,19 @@
         <v>283248</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>253154</v>
+        <v>256018</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>314857</v>
+        <v>315403</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2744701302111515</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2453083367061004</v>
+        <v>0.2480841633494416</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3050988944425657</v>
+        <v>0.3056282430447622</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>648</v>
@@ -5037,19 +5037,19 @@
         <v>687906</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>638376</v>
+        <v>642671</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>733359</v>
+        <v>733287</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2809708731410274</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2607408076367366</v>
+        <v>0.262494728619089</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2995360347769122</v>
+        <v>0.299506496207687</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>237949</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>208553</v>
+        <v>208412</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>266276</v>
+        <v>265474</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1680033765619127</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1472478819131961</v>
+        <v>0.1471484184092809</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1880034383414646</v>
+        <v>0.187436811765973</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>178</v>
@@ -5087,19 +5087,19 @@
         <v>180293</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154694</v>
+        <v>158580</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>204434</v>
+        <v>204489</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1747054507414608</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1498996378767116</v>
+        <v>0.1536654362906821</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.198098616574451</v>
+        <v>0.1981514662016123</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>404</v>
@@ -5108,19 +5108,19 @@
         <v>418242</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>380840</v>
+        <v>382918</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>454561</v>
+        <v>454167</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1708283430707364</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1555518033693204</v>
+        <v>0.1564005071777796</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1856623864572654</v>
+        <v>0.1855014926503068</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>145029</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>121642</v>
+        <v>122676</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>169284</v>
+        <v>172111</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1023975041304319</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08588499092513473</v>
+        <v>0.08661503810342275</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1195222941607013</v>
+        <v>0.1215183508517203</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>126</v>
@@ -5158,19 +5158,19 @@
         <v>133468</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>113329</v>
+        <v>113602</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>157800</v>
+        <v>155509</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.129331407339548</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1098169360642381</v>
+        <v>0.1100813845252315</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1529096103380846</v>
+        <v>0.1506893079752398</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>255</v>
@@ -5179,19 +5179,19 @@
         <v>278497</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>249050</v>
+        <v>246952</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>312947</v>
+        <v>314183</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1137503140933295</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1017229450324154</v>
+        <v>0.10086594134626</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1278210992309096</v>
+        <v>0.1283260618395497</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>25433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15600</v>
+        <v>15375</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37282</v>
+        <v>39149</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2602905798245596</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1596511113877589</v>
+        <v>0.1573487478429128</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3815516636052507</v>
+        <v>0.4006574636468019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -5544,19 +5544,19 @@
         <v>21766</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14130</v>
+        <v>14659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31928</v>
+        <v>31649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2813835225691221</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1826640120836413</v>
+        <v>0.1895091452217511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4127550569222643</v>
+        <v>0.4091428324620913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -5565,19 +5565,19 @@
         <v>47199</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34321</v>
+        <v>34499</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63068</v>
+        <v>63130</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.269610701916381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1960477251793722</v>
+        <v>0.1970667589095492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3602546927903429</v>
+        <v>0.3606098636573339</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>18048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10074</v>
+        <v>10189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31638</v>
+        <v>31412</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1847123881011398</v>
+        <v>0.1847123881011399</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1031011410899988</v>
+        <v>0.1042748286226184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3237882323739382</v>
+        <v>0.3214737079209664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -5615,19 +5615,19 @@
         <v>8422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4749</v>
+        <v>4543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13453</v>
+        <v>14048</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.108881594639822</v>
+        <v>0.1088815946398221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06139666489648092</v>
+        <v>0.0587279465590106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1739099925624645</v>
+        <v>0.181609188497046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -5636,19 +5636,19 @@
         <v>26471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17222</v>
+        <v>17565</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38902</v>
+        <v>39830</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1512058137962641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09837627058524942</v>
+        <v>0.1003358290376643</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2222146201706371</v>
+        <v>0.2275167846477028</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>29928</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19085</v>
+        <v>19531</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40873</v>
+        <v>42176</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3062906579134055</v>
+        <v>0.3062906579134056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1953216563727849</v>
+        <v>0.1998894564529705</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4183014662159495</v>
+        <v>0.4316405281113926</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -5686,19 +5686,19 @@
         <v>25326</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18472</v>
+        <v>18540</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33917</v>
+        <v>33713</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3274036864112023</v>
+        <v>0.3274036864112024</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2387921435000749</v>
+        <v>0.2396719067238135</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4384634191899533</v>
+        <v>0.4358323736525831</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -5707,19 +5707,19 @@
         <v>55254</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43536</v>
+        <v>42790</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70609</v>
+        <v>69882</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3156196550908287</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2486826393351771</v>
+        <v>0.244421036696568</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.403330110783454</v>
+        <v>0.3991760707364416</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>6112</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2516</v>
+        <v>2494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12529</v>
+        <v>12952</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06255404696806524</v>
+        <v>0.06255404696806525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02575365431216055</v>
+        <v>0.025523120207766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1282230580669579</v>
+        <v>0.132558588302864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5757,19 +5757,19 @@
         <v>15705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10191</v>
+        <v>10030</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24310</v>
+        <v>23606</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2030274238779994</v>
+        <v>0.2030274238779995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1317414393567433</v>
+        <v>0.1296581327766907</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3142675407013731</v>
+        <v>0.3051672982190964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -5778,19 +5778,19 @@
         <v>21817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14658</v>
+        <v>13948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31997</v>
+        <v>30934</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1246235760663004</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08373035988007099</v>
+        <v>0.07967584057131995</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1827748348429474</v>
+        <v>0.1767018924323603</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>18189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9733</v>
+        <v>9857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31540</v>
+        <v>31417</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1861523271928298</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09960702257441623</v>
+        <v>0.1008784647126564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3227903613138122</v>
+        <v>0.3215295909469685</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5828,19 +5828,19 @@
         <v>6134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2707</v>
+        <v>2835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10927</v>
+        <v>12026</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07930377250185411</v>
+        <v>0.07930377250185409</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03499795531846012</v>
+        <v>0.03665390745440934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1412608864162588</v>
+        <v>0.1554639077415059</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -5849,19 +5849,19 @@
         <v>24324</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13955</v>
+        <v>14658</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37156</v>
+        <v>39196</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1389402531302258</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07971583522947652</v>
+        <v>0.08372735965554777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2122432026096986</v>
+        <v>0.2238919264715154</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>36522</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25322</v>
+        <v>25171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50078</v>
+        <v>51600</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2148645382130803</v>
+        <v>0.2148645382130802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1489728521338261</v>
+        <v>0.1480886267641051</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2946226332732441</v>
+        <v>0.3035752236831149</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -5974,19 +5974,19 @@
         <v>24514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16919</v>
+        <v>16724</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33823</v>
+        <v>33686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1952553800351872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1347634228671966</v>
+        <v>0.1332056836592083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2693992618126884</v>
+        <v>0.2683098413940744</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -5995,19 +5995,19 @@
         <v>61036</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46566</v>
+        <v>46481</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76699</v>
+        <v>76190</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.206533892543646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1575715283747466</v>
+        <v>0.1572847750737447</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2595340156751627</v>
+        <v>0.2578126103552253</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>42199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29958</v>
+        <v>29854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55983</v>
+        <v>56436</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.248263821099097</v>
+        <v>0.2482638210990969</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1762514230088755</v>
+        <v>0.1756400441099834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3293629897660278</v>
+        <v>0.3320279349913116</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -6045,19 +6045,19 @@
         <v>31491</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23885</v>
+        <v>23236</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41663</v>
+        <v>40798</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2508260765093612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1902445882651494</v>
+        <v>0.185077425259617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3318499103891528</v>
+        <v>0.3249605877779641</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -6066,19 +6066,19 @@
         <v>73690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59075</v>
+        <v>59849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90817</v>
+        <v>91329</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2493523554330984</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.199899829629212</v>
+        <v>0.2025177410819984</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3073078596691753</v>
+        <v>0.3090421549412866</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>51305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39275</v>
+        <v>39482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64877</v>
+        <v>64923</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3018393017211797</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2310613782395558</v>
+        <v>0.2322808211268625</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3816876112238778</v>
+        <v>0.3819585927451068</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -6116,19 +6116,19 @@
         <v>36810</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27368</v>
+        <v>28830</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45210</v>
+        <v>46551</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2931920276063863</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2179830275449511</v>
+        <v>0.2296289020841114</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3600951970106126</v>
+        <v>0.3707767500539205</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>92</v>
@@ -6137,19 +6137,19 @@
         <v>88115</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>72681</v>
+        <v>73042</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105193</v>
+        <v>105207</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2981656418932924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2459392022290388</v>
+        <v>0.2471593457629809</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3559548274881824</v>
+        <v>0.356002696016244</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>29816</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18737</v>
+        <v>19912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41858</v>
+        <v>42419</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1754148602986066</v>
+        <v>0.1754148602986065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1102333931790681</v>
+        <v>0.1171460726614525</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2462626811694835</v>
+        <v>0.2495588219080263</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -6187,19 +6187,19 @@
         <v>20931</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14232</v>
+        <v>14437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29221</v>
+        <v>29318</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1667124142223964</v>
+        <v>0.1667124142223963</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1133591026893495</v>
+        <v>0.1149913882173926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2327477849635033</v>
+        <v>0.2335218716142652</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -6208,19 +6208,19 @@
         <v>50747</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39310</v>
+        <v>38647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65761</v>
+        <v>67172</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1717177615215669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1330188501013228</v>
+        <v>0.1307739713523504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2225243502909486</v>
+        <v>0.2272993820105405</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>10133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4431</v>
+        <v>4389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19189</v>
+        <v>20075</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05961747866803657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02606942980942729</v>
+        <v>0.02581852348687741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1128917664909105</v>
+        <v>0.1181042686511508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -6258,19 +6258,19 @@
         <v>11803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6973</v>
+        <v>6902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18715</v>
+        <v>18846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09401410162666896</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05553803022433026</v>
+        <v>0.05497478953770066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1490630241271611</v>
+        <v>0.150105416648547</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -6279,19 +6279,19 @@
         <v>21937</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14180</v>
+        <v>14078</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32732</v>
+        <v>32129</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07423034860839639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04798340098743606</v>
+        <v>0.04763639924473075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1107584228456974</v>
+        <v>0.1087199742107019</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>35013</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24173</v>
+        <v>23361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47880</v>
+        <v>46924</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3795978266656648</v>
+        <v>0.3795978266656649</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2620789814158874</v>
+        <v>0.253266970196395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5190945107425154</v>
+        <v>0.508737292356277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -6404,19 +6404,19 @@
         <v>35194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26984</v>
+        <v>26341</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43842</v>
+        <v>44519</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3870613221194242</v>
+        <v>0.3870613221194243</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2967760363655119</v>
+        <v>0.2896980928900283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4821777911437779</v>
+        <v>0.4896285095552918</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -6425,19 +6425,19 @@
         <v>70207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56997</v>
+        <v>55982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85388</v>
+        <v>84784</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3833028543090565</v>
+        <v>0.3833028543090566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3111847018005827</v>
+        <v>0.3056419977107141</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4661903312892541</v>
+        <v>0.4628930384867461</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>20902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12368</v>
+        <v>12586</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32031</v>
+        <v>32596</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.226610180634667</v>
+        <v>0.2266101806346671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1340928675851319</v>
+        <v>0.1364493095879522</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3472650672234814</v>
+        <v>0.3533993005811067</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -6475,19 +6475,19 @@
         <v>11114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6198</v>
+        <v>6063</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18283</v>
+        <v>18025</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1222285731742862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0681689928177365</v>
+        <v>0.06668353631746302</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.201076589953578</v>
+        <v>0.1982406744971115</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -6496,19 +6496,19 @@
         <v>32015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21807</v>
+        <v>21744</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44592</v>
+        <v>44038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1747930738248056</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1190568127270072</v>
+        <v>0.1187169222889517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2434558807837688</v>
+        <v>0.2404295890447861</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>19672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11220</v>
+        <v>11359</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31007</v>
+        <v>29924</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2132786892476282</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1216453889155643</v>
+        <v>0.1231497397244857</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3361623950033608</v>
+        <v>0.324430306695185</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -6546,19 +6546,19 @@
         <v>26251</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18850</v>
+        <v>19322</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34548</v>
+        <v>34626</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2887139524592068</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2073090317823083</v>
+        <v>0.2125012535964547</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3799624691116715</v>
+        <v>0.3808159478495045</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -6567,19 +6567,19 @@
         <v>45924</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34669</v>
+        <v>34594</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58156</v>
+        <v>58804</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2507262548309425</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1892797736755256</v>
+        <v>0.188871745259744</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3175090488998679</v>
+        <v>0.3210514210898229</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>11988</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5478</v>
+        <v>5923</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21484</v>
+        <v>22176</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1299709610713213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0593889201794925</v>
+        <v>0.06421910473012893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2329180069878443</v>
+        <v>0.2404290376873676</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6617,19 +6617,19 @@
         <v>8347</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4342</v>
+        <v>4472</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14940</v>
+        <v>14768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09179976645834301</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04775482544383743</v>
+        <v>0.04918483457038645</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1643138755979423</v>
+        <v>0.1624155551935179</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6638,19 +6638,19 @@
         <v>20335</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12961</v>
+        <v>12264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32745</v>
+        <v>31610</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1110220205784146</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07076470649057622</v>
+        <v>0.06695748091261193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1787754116107263</v>
+        <v>0.1725806220632624</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>4662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1120</v>
+        <v>1175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10507</v>
+        <v>10937</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05054234238071855</v>
+        <v>0.05054234238071856</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01214321724422761</v>
+        <v>0.01273803101623276</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1139180003957711</v>
+        <v>0.1185699995513066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -6688,19 +6688,19 @@
         <v>10020</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5332</v>
+        <v>5383</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16447</v>
+        <v>16437</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1101963857887397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05864453968237206</v>
+        <v>0.05919983795752073</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1808876935194034</v>
+        <v>0.1807755857913257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -6709,19 +6709,19 @@
         <v>14681</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8827</v>
+        <v>8481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23846</v>
+        <v>23860</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08015579645678084</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04819127755233746</v>
+        <v>0.04630128140648129</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1301902916071642</v>
+        <v>0.1302648016061255</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>45308</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35343</v>
+        <v>33856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57630</v>
+        <v>57820</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3921644381799081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.305906198038111</v>
+        <v>0.2930374856056776</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4988115370424401</v>
+        <v>0.5004556579209966</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -6834,19 +6834,19 @@
         <v>38334</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30030</v>
+        <v>29916</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46686</v>
+        <v>47971</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4023732156838974</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3152064529778121</v>
+        <v>0.3140049404489322</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4900300518277336</v>
+        <v>0.5035163343449424</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -6855,19 +6855,19 @@
         <v>83643</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70307</v>
+        <v>69020</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98269</v>
+        <v>97605</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3967781919566156</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3335183592750199</v>
+        <v>0.3274121260465637</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4661599168586064</v>
+        <v>0.4630097929306121</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>13106</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6783</v>
+        <v>6876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22370</v>
+        <v>21386</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1134357933601916</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05870567850602239</v>
+        <v>0.05951450114913074</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1936266112661093</v>
+        <v>0.1851015089949216</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -6905,19 +6905,19 @@
         <v>11084</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6571</v>
+        <v>6362</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17415</v>
+        <v>16905</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1163444584054956</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06897403696294499</v>
+        <v>0.0667776983163931</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1827925586358056</v>
+        <v>0.1774418960202341</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -6926,19 +6926,19 @@
         <v>24190</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16905</v>
+        <v>16111</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35581</v>
+        <v>34036</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1147503351192518</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08019181407087203</v>
+        <v>0.07642746882801615</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1687847932981268</v>
+        <v>0.161457498574301</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>33613</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23969</v>
+        <v>24051</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44136</v>
+        <v>44642</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2909318609247794</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2074626443810956</v>
+        <v>0.208170893221051</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.382021720309523</v>
+        <v>0.3863956708343136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -6976,19 +6976,19 @@
         <v>30853</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23483</v>
+        <v>22737</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39781</v>
+        <v>39724</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3238476153294885</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2464815837797802</v>
+        <v>0.2386511268717294</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4175567657929659</v>
+        <v>0.4169534004843869</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -6997,19 +6997,19 @@
         <v>64466</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50610</v>
+        <v>53330</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77963</v>
+        <v>78869</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3058078033320418</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2400802118183912</v>
+        <v>0.2529829837109194</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3698344713170647</v>
+        <v>0.3741324802448497</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>14055</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7434</v>
+        <v>8064</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22000</v>
+        <v>22212</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1216481791405968</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06434142551700078</v>
+        <v>0.06980008406713978</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1904227033659358</v>
+        <v>0.1922556059080813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -7047,19 +7047,19 @@
         <v>9529</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5205</v>
+        <v>4916</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16261</v>
+        <v>16091</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.100020207807429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05463359433668085</v>
+        <v>0.05159868011279858</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1706767675248741</v>
+        <v>0.1688960859544523</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -7068,19 +7068,19 @@
         <v>23584</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15610</v>
+        <v>15953</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33864</v>
+        <v>34853</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1118736361669715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07404808957314482</v>
+        <v>0.07567445167683463</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1606434023336928</v>
+        <v>0.1653322838584957</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>9453</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3933</v>
+        <v>4570</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18974</v>
+        <v>19582</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08181972839452406</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03404142641887121</v>
+        <v>0.03955284533651517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1642294154331203</v>
+        <v>0.1694944486428751</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7118,19 +7118,19 @@
         <v>5470</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2375</v>
+        <v>2276</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10346</v>
+        <v>11385</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05741450277368954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02493062915350502</v>
+        <v>0.02389108123920924</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1085931645554154</v>
+        <v>0.1194994507476903</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -7139,19 +7139,19 @@
         <v>14923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7931</v>
+        <v>8503</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24483</v>
+        <v>27287</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07079003342511939</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03762295813780495</v>
+        <v>0.04033775921015038</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1161419844727832</v>
+        <v>0.1294433904658248</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>142276</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>120984</v>
+        <v>118968</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>165976</v>
+        <v>168831</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.29924081498601</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.254457584393375</v>
+        <v>0.2502188094216274</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3490867797863285</v>
+        <v>0.3550913337379059</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>141</v>
@@ -7264,19 +7264,19 @@
         <v>119808</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>102682</v>
+        <v>103829</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>137164</v>
+        <v>139366</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3079124123418891</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.26389769765424</v>
+        <v>0.2668456858082228</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3525178679345057</v>
+        <v>0.358175816337877</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>254</v>
@@ -7285,19 +7285,19 @@
         <v>262085</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>233534</v>
+        <v>232766</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>292448</v>
+        <v>292763</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3031435275554646</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2701202266807936</v>
+        <v>0.2692322316404966</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3382632873283412</v>
+        <v>0.3386283870216325</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>94255</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>74242</v>
+        <v>74735</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>116210</v>
+        <v>115500</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1982400516128593</v>
+        <v>0.1982400516128592</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1561491131541023</v>
+        <v>0.1571848252478469</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2444172828533892</v>
+        <v>0.2429232844411998</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -7335,19 +7335,19 @@
         <v>62111</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50668</v>
+        <v>49522</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>76331</v>
+        <v>75137</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1596282810666628</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1302192659183637</v>
+        <v>0.1272732912903702</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1961736440742322</v>
+        <v>0.193105613162719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>159</v>
@@ -7356,19 +7356,19 @@
         <v>156366</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>133694</v>
+        <v>135394</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>181712</v>
+        <v>180592</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1808625563192874</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1546384789129193</v>
+        <v>0.1566054654266192</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2101799668069031</v>
+        <v>0.2088846056002323</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>134518</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>112983</v>
+        <v>112124</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>158766</v>
+        <v>157462</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2829231796819452</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2376306739517803</v>
+        <v>0.2358234319119155</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3339225031382522</v>
+        <v>0.331180216426799</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>161</v>
@@ -7406,19 +7406,19 @@
         <v>119241</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>104365</v>
+        <v>103427</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>136292</v>
+        <v>136323</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3064530022467322</v>
+        <v>0.3064530022467323</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2682210756540928</v>
+        <v>0.2658116901394134</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3502763382773488</v>
+        <v>0.3503552313376103</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>278</v>
@@ -7427,19 +7427,19 @@
         <v>253758</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>227475</v>
+        <v>226186</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>281443</v>
+        <v>281279</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2935129396202769</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2631118289717337</v>
+        <v>0.2616210752979445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3255348503787014</v>
+        <v>0.325345340998527</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>61971</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>46035</v>
+        <v>46915</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>78395</v>
+        <v>79954</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1303398813522864</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09682336217925942</v>
+        <v>0.09867370975545638</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1648844415411847</v>
+        <v>0.1681618189275318</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>71</v>
@@ -7477,19 +7477,19 @@
         <v>54511</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41545</v>
+        <v>43934</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>67611</v>
+        <v>69129</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1400965894075108</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1067728411299582</v>
+        <v>0.1129114802466359</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1737632763866754</v>
+        <v>0.1776648725708043</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>125</v>
@@ -7498,19 +7498,19 @@
         <v>116482</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>95647</v>
+        <v>95989</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>138626</v>
+        <v>136871</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1347309555224689</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1106316216311969</v>
+        <v>0.1110274872322884</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1603435505739638</v>
+        <v>0.1583134582877245</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>42437</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>29671</v>
+        <v>28189</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61446</v>
+        <v>60312</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08925607236689916</v>
+        <v>0.08925607236689914</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06240483294483101</v>
+        <v>0.0592885343017674</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1292355532077102</v>
+        <v>0.1268516122797647</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>42</v>
@@ -7548,19 +7548,19 @@
         <v>33427</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24594</v>
+        <v>23917</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>45180</v>
+        <v>44381</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08590971493720519</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06320632997663715</v>
+        <v>0.06146646844917802</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1161134316289215</v>
+        <v>0.1140621215226989</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>72</v>
@@ -7569,19 +7569,19 @@
         <v>75865</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>59770</v>
+        <v>59528</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97806</v>
+        <v>97575</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.08775002098250222</v>
+        <v>0.0877500209825022</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06913413383775986</v>
+        <v>0.06885365737947684</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1131286505512078</v>
+        <v>0.1128616094540056</v>
       </c>
     </row>
     <row r="33">
